--- a/data/rating.xlsx
+++ b/data/rating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoungmin/recommendSystem/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyung Min\hankkimoa_recommend\recommendSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B767EBC9-7202-A445-8208-0BF3EF2650ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BC5D4-0C10-4E15-9792-935F1B122C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="184">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -66,21 +66,12 @@
 (예: 010-1234-1234)</t>
   </si>
   <si>
-    <t>동대닭한마리</t>
-  </si>
-  <si>
     <t>네</t>
   </si>
   <si>
-    <t>김치만선생</t>
-  </si>
-  <si>
     <t>오이드킨</t>
   </si>
   <si>
-    <t>희희카츠</t>
-  </si>
-  <si>
     <t>짬뽕야</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>010-3693-9758</t>
   </si>
   <si>
-    <t>닭한마리</t>
-  </si>
-  <si>
     <t>한국의집</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>필동 부대찌개</t>
   </si>
   <si>
-    <t>파스타마켓</t>
-  </si>
-  <si>
     <t>한식, 양식, 분식</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>010-9458-2767</t>
   </si>
   <si>
-    <t>황평집</t>
-  </si>
-  <si>
     <t>한식</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>썬더치킨</t>
   </si>
   <si>
-    <t>은화수식당</t>
-  </si>
-  <si>
     <t>한식, 중식, 양식, 분식, 일식</t>
   </si>
   <si>
@@ -213,9 +192,6 @@
     <t>010-8769-5145</t>
   </si>
   <si>
-    <t>충무로 닭한마리</t>
-  </si>
-  <si>
     <t>필동면옥</t>
   </si>
   <si>
@@ -225,27 +201,18 @@
     <t>01-09090-5349</t>
   </si>
   <si>
-    <t>행복한덮밥/산타돈부리</t>
-  </si>
-  <si>
     <t>한식, 중식, 양식, 분식, 아시안</t>
   </si>
   <si>
     <t>010-5126-9078</t>
   </si>
   <si>
-    <t>맘스터치 명동LAB점</t>
-  </si>
-  <si>
     <t>일식</t>
   </si>
   <si>
     <t>01067203757</t>
   </si>
   <si>
-    <t>바로파스타마켓</t>
-  </si>
-  <si>
     <t>솜이네떡볶이</t>
   </si>
   <si>
@@ -261,9 +228,6 @@
     <t>안받아도 괜찮아요</t>
   </si>
   <si>
-    <t>희희카츠 돈까스</t>
-  </si>
-  <si>
     <t>양식</t>
   </si>
   <si>
@@ -372,9 +336,6 @@
     <t>010-5102-5272</t>
   </si>
   <si>
-    <t>왕순이김밥</t>
-  </si>
-  <si>
     <t>010-8203-9157</t>
   </si>
   <si>
@@ -405,15 +366,9 @@
     <t>010-8787-4840</t>
   </si>
   <si>
-    <t>올디스타코</t>
-  </si>
-  <si>
     <t>010-3181-6227</t>
   </si>
   <si>
-    <t>본가닭한마리</t>
-  </si>
-  <si>
     <t>010-4497-8087</t>
   </si>
   <si>
@@ -423,9 +378,6 @@
     <t>미분당</t>
   </si>
   <si>
-    <t>신승호 라멘</t>
-  </si>
-  <si>
     <t>010-4495-4526</t>
   </si>
   <si>
@@ -495,36 +447,21 @@
     <t>명화당</t>
   </si>
   <si>
-    <t>명동할머니국수</t>
-  </si>
-  <si>
     <t>맥도날드</t>
   </si>
   <si>
-    <t>틈새라면</t>
-  </si>
-  <si>
     <t>한식, 분식</t>
   </si>
   <si>
     <t>010-8324-0661</t>
   </si>
   <si>
-    <t>동대문 닭한마리</t>
-  </si>
-  <si>
     <t>하안닭</t>
   </si>
   <si>
     <t>010-9008-6822</t>
   </si>
   <si>
-    <t>바오서울</t>
-  </si>
-  <si>
-    <t>사랑방 칼국수</t>
-  </si>
-  <si>
     <t>010-2352-2118</t>
   </si>
   <si>
@@ -564,15 +501,7 @@
     <t>010-6717-5744</t>
   </si>
   <si>
-    <t>동대닭한마리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>필동부대찌개</t>
-  </si>
-  <si>
-    <t>김치만선생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>필동닭칼국수</t>
@@ -595,6 +524,253 @@
   </si>
   <si>
     <t>파파포</t>
+  </si>
+  <si>
+    <t>바로 파스타마켓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대닭한마리 본점</t>
+  </si>
+  <si>
+    <t>동대닭한마리 본점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕순이김밥 동국대점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맘스터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동국대점</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한덮밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바오서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충무로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>틈새라면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명동본점</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황평집닭곰탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신승호라멘집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명동할머니국수본점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치만선생 동대필동점</t>
+  </si>
+  <si>
+    <t>동대동대닭한마리 본점</t>
+  </si>
+  <si>
+    <t>희희카츠 충무로점</t>
+  </si>
+  <si>
+    <t>올디스타코 을지로 본점</t>
+  </si>
+  <si>
+    <t>은화수식당 동국대점</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은화수식당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동국대점</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동대닭한마리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본점</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>희희카츠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충무로점</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본가원조닭한마리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -645,6 +821,27 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -847,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -910,6 +1107,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,36 +1398,36 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="127.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" customWidth="1"/>
+    <col min="11" max="11" width="29.81640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="29.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" customWidth="1"/>
+    <col min="14" max="14" width="29.81640625" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="29.1640625" customWidth="1"/>
+    <col min="16" max="16" width="29.1796875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.6328125" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="25" width="18.83203125" customWidth="1"/>
+    <col min="20" max="25" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,313 +1486,313 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>45796.528942129633</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+      <c r="B2" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="O2" s="5">
         <v>3</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="5">
         <v>12000</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>45796.569525393519</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8">
+        <v>4</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="8">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8">
-        <v>5</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="8">
-        <v>4</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="Q3" s="8">
         <v>12000</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>45796.569704097223</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="O4" s="5">
         <v>3</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="5">
         <v>13000</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>45796.573620092589</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8">
         <v>5</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="8">
         <v>4</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O5" s="8">
         <v>4</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="8">
         <v>12000</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>45796.574559467597</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="O6" s="5">
         <v>4</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="5">
         <v>20000</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <v>45796.602951724533</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1603,30 +1806,30 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="11">
         <v>15000</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>45796.610691423615</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
+      <c r="B8" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1640,48 +1843,48 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="5">
         <v>10000</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <v>45796.61610728009</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="F9" s="8">
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I9" s="8">
         <v>5</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1689,103 +1892,103 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="8">
         <v>10000</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>45796.622987835653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L10" s="5">
         <v>5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="5">
         <v>12000</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <v>45796.625506909724</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I11" s="8">
         <v>3</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1793,30 +1996,30 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="8">
         <v>9000</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>45796.631115868055</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
+      <c r="B12" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1830,101 +2033,101 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="5">
         <v>10000</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <v>45796.63565462963</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="18" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I13" s="8">
         <v>5</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L13" s="8">
         <v>5</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="18" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O13" s="8">
         <v>5</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="8">
         <v>9000</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>45796.635981435189</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
+      <c r="B14" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="I14" s="5">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1932,33 +2135,37 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="5">
         <v>10000</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <v>45796.636316041666</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>65</v>
+      <c r="B15" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="C15" s="8">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1969,30 +2176,30 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="8">
         <v>5000</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>45796.662464791661</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
+      <c r="B16" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2006,89 +2213,89 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="5">
         <v>8000</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
       <c r="A17" s="7">
         <v>45796.679291840279</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>71</v>
+      <c r="B17" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L17" s="8">
         <v>3</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O17" s="8">
         <v>2</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="8">
         <v>20000</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>45796.680691724541</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2102,30 +2309,30 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="5">
         <v>10000</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
       <c r="A19" s="7">
         <v>45796.697709710643</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2139,39 +2346,39 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="8">
         <v>20000</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>45796.74538202546</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2182,30 +2389,30 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="5">
         <v>7000</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="7">
         <v>45796.749529363427</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2219,30 +2426,30 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="8">
         <v>10000</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>45796.761497256943</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2256,138 +2463,138 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="13">
         <v>10000</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="7">
         <v>45796.764662500005</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C23" s="8">
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F23" s="8">
         <v>4</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I23" s="8">
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L23" s="8">
         <v>4</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="8">
         <v>20000</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>45796.877813159721</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F24" s="5">
         <v>5</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="21" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="I24" s="5">
         <v>5</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="21" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L24" s="5">
         <v>5</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="20" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O24" s="5">
         <v>5</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="5">
         <v>12000</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="7">
         <v>45796.902075868056</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2401,30 +2608,30 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="8">
         <v>13000</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>45796.941980497686</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2438,30 +2645,30 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="5">
         <v>8000</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
       <c r="A27" s="7">
         <v>45796.943134097222</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2475,30 +2682,30 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="8">
         <v>15000</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>45796.944626898148</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2512,39 +2719,39 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="5">
         <v>10000</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
       <c r="A29" s="7">
         <v>45796.956241342588</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2555,48 +2762,48 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="8">
         <v>10000</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>45796.959293854168</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I30" s="5">
         <v>5</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2604,30 +2811,30 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="13">
         <v>10000</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="7">
         <v>45796.97914599537</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
+      <c r="B31" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2641,89 +2848,89 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="8">
         <v>10000</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>45797.01669232639</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <v>5</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F32" s="5">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I32" s="5">
         <v>5</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L32" s="5">
         <v>5</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="O32" s="5">
         <v>5</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="5">
         <v>11000</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1">
       <c r="A33" s="7">
         <v>45797.233526782409</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2737,905 +2944,905 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="8">
         <v>13000</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>45797.714527569449</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" s="5">
         <v>5</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="I34" s="5">
         <v>5</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L34" s="5">
         <v>5</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="O34" s="5">
         <v>4</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q34" s="5">
         <v>10000</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1">
       <c r="A35" s="7">
         <v>45797.717843576393</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="8">
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F35" s="8">
         <v>3</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I35" s="8">
         <v>4</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="L35" s="8">
         <v>4</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8">
         <v>5</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q35" s="8">
         <v>12000</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1">
       <c r="A36" s="4">
         <v>45798.000454918976</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="F36" s="5">
         <v>4</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="5">
+        <v>5</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="5">
-        <v>5</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="5">
-        <v>5</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O36" s="5">
         <v>5</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="5">
         <v>17000</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1">
       <c r="A37" s="7">
         <v>45798.029490671295</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C37" s="8">
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="Q37" s="8">
         <v>10000</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1">
       <c r="A38" s="4">
         <v>45798.030730474537</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C38" s="5">
         <v>5</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="Q38" s="5">
         <v>12000</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
       <c r="A39" s="7">
         <v>45798.044103298613</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>127</v>
+      <c r="B39" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C39" s="8">
         <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="8">
         <v>10000</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>45798.046801597222</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C40" s="5">
         <v>5</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F40" s="5">
         <v>4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="I40" s="5">
         <v>4</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L40" s="5">
         <v>4</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="O40" s="5">
         <v>3</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="5">
         <v>10000</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1">
       <c r="A41" s="7">
         <v>45798.077045011574</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" s="8">
         <v>5</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41" s="8">
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="I41" s="8">
         <v>4</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="Q41" s="8">
         <v>10000</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1">
       <c r="A42" s="4">
         <v>45798.285019976851</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F42" s="5">
         <v>5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I42" s="5">
         <v>5</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L42" s="5">
         <v>4</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O42" s="5">
         <v>5</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q42" s="5">
         <v>10000</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1">
       <c r="A43" s="7">
         <v>45798.401359236115</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C43" s="8">
         <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q43" s="8">
         <v>8000</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>45798.856202465278</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C44" s="5">
         <v>5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I44" s="5">
         <v>5</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="O44" s="5">
         <v>4</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Q44" s="13">
         <v>11000</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1">
       <c r="A45" s="7">
         <v>45798.856604143519</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>12</v>
+      <c r="B45" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="C45" s="8">
         <v>3</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F45" s="8">
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I45" s="8">
         <v>3</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L45" s="8">
         <v>4</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8">
         <v>4</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="Q45" s="8">
         <v>20000</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1">
       <c r="A46" s="4">
         <v>45798.875175243054</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F46" s="5">
         <v>4</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>155</v>
+        <v>12</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="I46" s="5">
         <v>5</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L46" s="5">
         <v>3</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="O46" s="5">
         <v>3</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="Q46" s="5">
         <v>10000</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1">
       <c r="A47" s="7">
         <v>45798.883847696758</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>160</v>
+      <c r="B47" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="C47" s="8">
         <v>5</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F47" s="8">
         <v>3</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="8">
         <v>12000</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="4">
         <v>45798.888259768515</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>163</v>
+      <c r="B48" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C48" s="5">
         <v>5</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F48" s="5">
         <v>5</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Q48" s="5">
         <v>15000</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="7">
         <v>45798.924486412041</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>12</v>
+      <c r="B49" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="C49" s="8">
         <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="Q49" s="8">
         <v>9000</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="4">
         <v>45799.037331631946</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C50" s="5">
         <v>5</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F50" s="5">
         <v>4</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I50" s="5">
         <v>5</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q50" s="5">
         <v>10000</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="7">
         <v>45799.385408587965</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F51" s="8">
         <v>5</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I51" s="8">
         <v>4</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="8">
         <v>10000</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="4">
         <v>45799.652227094906</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="5">
         <v>10000</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="14">
         <v>45799.833152557869</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C53" s="15">
         <v>4</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F53" s="15">
         <v>5</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I53" s="15">
         <v>4</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L53" s="15">
         <v>4</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O53" s="15">
         <v>4</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="15">
         <v>11000</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/rating.xlsx
+++ b/data/rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyung Min\hankkimoa_recommend\recommendSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BC5D4-0C10-4E15-9792-935F1B122C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4510FE-D5FE-4D1C-8DB6-19892320FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="8290" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>한국의집</t>
   </si>
   <si>
-    <t>하얀집</t>
-  </si>
-  <si>
     <t>한식, 양식, 일식</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>010-8920-6870</t>
   </si>
   <si>
-    <t>필동함박</t>
-  </si>
-  <si>
     <t>아니요</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
   </si>
   <si>
     <t>010-3474-0158</t>
-  </si>
-  <si>
-    <t>옛날농장</t>
   </si>
   <si>
     <t>010-9877-9616</t>
@@ -771,6 +762,15 @@
   <si>
     <t>본가원조닭한마리</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날농장 충무로점</t>
+  </si>
+  <si>
+    <t>필동함박 충무로 본점</t>
+  </si>
+  <si>
+    <t>하얀집 1호점</t>
   </si>
 </sst>
 </file>
@@ -1398,9 +1398,9 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1491,7 +1491,7 @@
         <v>45796.528942129633</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
@@ -1500,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F2" s="5">
         <v>5</v>
@@ -1518,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L2" s="5">
         <v>5</v>
@@ -1568,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I3" s="8">
         <v>5</v>
@@ -1668,7 +1668,7 @@
         <v>45796.573620092589</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
@@ -1695,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="8">
         <v>12000</v>
@@ -1719,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1">
@@ -1727,16 +1727,16 @@
         <v>45796.574559467597</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -1745,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -1763,13 +1763,13 @@
         <v>12</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O6" s="5">
         <v>4</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="5">
         <v>20000</v>
@@ -1778,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
@@ -1786,13 +1786,13 @@
         <v>45796.602951724533</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1806,7 +1806,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="11">
         <v>15000</v>
@@ -1815,7 +1815,7 @@
         <v>16</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1">
@@ -1823,13 +1823,13 @@
         <v>45796.610691423615</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1843,7 +1843,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="5">
         <v>10000</v>
@@ -1852,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
@@ -1860,7 +1860,7 @@
         <v>45796.61610728009</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" s="8">
         <v>5</v>
@@ -1878,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I9" s="8">
         <v>5</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1892,7 +1892,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="8">
         <v>10000</v>
@@ -1901,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1">
@@ -1909,7 +1909,7 @@
         <v>45796.622987835653</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -1936,18 +1936,18 @@
         <v>12</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L10" s="5">
         <v>5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="5">
         <v>12000</v>
@@ -1956,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
@@ -1964,7 +1964,7 @@
         <v>45796.625506909724</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8">
         <v>4</v>
@@ -1973,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1982,13 +1982,13 @@
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="8">
         <v>3</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1996,7 +1996,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="8">
         <v>9000</v>
@@ -2005,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
@@ -2013,13 +2013,13 @@
         <v>45796.631115868055</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2033,7 +2033,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="5">
         <v>10000</v>
@@ -2042,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1">
@@ -2050,23 +2050,23 @@
         <v>45796.63565462963</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I13" s="8">
         <v>5</v>
@@ -2080,13 +2080,13 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O13" s="8">
         <v>5</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="8">
         <v>9000</v>
@@ -2095,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1">
@@ -2103,7 +2103,7 @@
         <v>45796.635981435189</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -2112,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
@@ -2121,13 +2121,13 @@
         <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I14" s="5">
         <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2135,7 +2135,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="5">
         <v>10000</v>
@@ -2144,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1">
@@ -2152,13 +2152,13 @@
         <v>45796.636316041666</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="8">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>27</v>
@@ -2176,7 +2176,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="8">
         <v>5000</v>
@@ -2185,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1">
@@ -2193,13 +2193,13 @@
         <v>45796.662464791661</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2213,7 +2213,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="5">
         <v>8000</v>
@@ -2222,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1">
@@ -2230,7 +2230,7 @@
         <v>45796.679291840279</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="8">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -2248,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="8">
         <v>3</v>
@@ -2266,13 +2266,13 @@
         <v>12</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O17" s="8">
         <v>2</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="8">
         <v>20000</v>
@@ -2281,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1">
@@ -2289,13 +2289,13 @@
         <v>45796.680691724541</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2309,7 +2309,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="5">
         <v>10000</v>
@@ -2318,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1">
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2355,7 +2355,7 @@
         <v>16</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>45796.74538202546</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -2372,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2389,7 +2389,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="5">
         <v>7000</v>
@@ -2398,7 +2398,7 @@
         <v>16</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
@@ -2406,13 +2406,13 @@
         <v>45796.749529363427</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2426,7 +2426,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="8">
         <v>10000</v>
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
@@ -2443,13 +2443,13 @@
         <v>45796.761497256943</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2463,7 +2463,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="13">
         <v>10000</v>
@@ -2472,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
@@ -2480,25 +2480,25 @@
         <v>45796.764662500005</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="8">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="I23" s="8">
         <v>3</v>
@@ -2513,12 +2513,12 @@
         <v>4</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="8">
         <v>20000</v>
@@ -2527,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
@@ -2535,43 +2535,43 @@
         <v>45796.877813159721</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="5">
         <v>5</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I24" s="5">
         <v>5</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" s="5">
         <v>5</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O24" s="5">
         <v>5</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="5">
         <v>12000</v>
@@ -2580,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
@@ -2588,13 +2588,13 @@
         <v>45796.902075868056</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C25" s="8">
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2608,7 +2608,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="8">
         <v>13000</v>
@@ -2617,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1">
@@ -2631,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2654,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1">
@@ -2662,13 +2662,13 @@
         <v>45796.943134097222</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2682,7 +2682,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="8">
         <v>15000</v>
@@ -2691,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1">
@@ -2699,13 +2699,13 @@
         <v>45796.944626898148</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2719,7 +2719,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="5">
         <v>10000</v>
@@ -2728,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
@@ -2736,7 +2736,7 @@
         <v>45796.956241342588</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
@@ -2745,13 +2745,13 @@
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8">
         <v>3</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2762,7 +2762,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="8">
         <v>10000</v>
@@ -2771,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
@@ -2779,7 +2779,7 @@
         <v>45796.959293854168</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
@@ -2797,13 +2797,13 @@
         <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I30" s="5">
         <v>5</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2811,7 +2811,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="13">
         <v>10000</v>
@@ -2820,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
@@ -2828,13 +2828,13 @@
         <v>45796.97914599537</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2848,7 +2848,7 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="8">
         <v>10000</v>
@@ -2857,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
@@ -2865,7 +2865,7 @@
         <v>45797.01669232639</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C32" s="5">
         <v>5</v>
@@ -2874,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F32" s="5">
         <v>3</v>
@@ -2883,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I32" s="5">
         <v>5</v>
@@ -2901,13 +2901,13 @@
         <v>12</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O32" s="5">
         <v>5</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="5">
         <v>11000</v>
@@ -2916,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
@@ -2924,13 +2924,13 @@
         <v>45797.233526782409</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2944,7 +2944,7 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q33" s="8">
         <v>13000</v>
@@ -2953,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
@@ -2970,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F34" s="5">
         <v>5</v>
@@ -2988,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="L34" s="5">
         <v>5</v>
@@ -2997,13 +2997,13 @@
         <v>12</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O34" s="5">
         <v>4</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="5">
         <v>10000</v>
@@ -3012,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1">
@@ -3029,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" s="8">
         <v>3</v>
@@ -3038,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I35" s="8">
         <v>4</v>
@@ -3047,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L35" s="8">
         <v>4</v>
@@ -3056,13 +3056,13 @@
         <v>12</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8">
         <v>5</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q35" s="8">
         <v>12000</v>
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1">
@@ -3079,7 +3079,7 @@
         <v>45798.000454918976</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
@@ -3088,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F36" s="5">
         <v>4</v>
@@ -3130,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1">
@@ -3138,16 +3138,16 @@
         <v>45798.029490671295</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" s="8">
         <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="8">
         <v>10000</v>
@@ -3156,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1">
@@ -3164,16 +3164,16 @@
         <v>45798.030730474537</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5">
         <v>5</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="5">
         <v>12000</v>
@@ -3182,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1">
@@ -3190,16 +3190,16 @@
         <v>45798.044103298613</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C39" s="8">
         <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="8">
         <v>10000</v>
@@ -3208,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1">
@@ -3216,7 +3216,7 @@
         <v>45798.046801597222</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" s="5">
         <v>5</v>
@@ -3225,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F40" s="5">
         <v>4</v>
@@ -3234,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I40" s="5">
         <v>4</v>
@@ -3243,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="L40" s="5">
         <v>4</v>
@@ -3252,13 +3252,13 @@
         <v>12</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O40" s="5">
         <v>3</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="5">
         <v>10000</v>
@@ -3267,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1">
@@ -3275,7 +3275,7 @@
         <v>45798.077045011574</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" s="8">
         <v>5</v>
@@ -3293,16 +3293,16 @@
         <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I41" s="8">
         <v>4</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q41" s="8">
         <v>10000</v>
@@ -3311,7 +3311,7 @@
         <v>16</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1">
@@ -3319,49 +3319,49 @@
         <v>45798.285019976851</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="5">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L42" s="5">
+        <v>4</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="5">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="5">
-        <v>5</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="5">
-        <v>5</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L42" s="5">
-        <v>4</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="O42" s="5">
         <v>5</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="5">
         <v>10000</v>
@@ -3370,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1">
@@ -3378,13 +3378,13 @@
         <v>45798.401359236115</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" s="8">
         <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>15</v>
@@ -3396,7 +3396,7 @@
         <v>16</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1">
@@ -3404,7 +3404,7 @@
         <v>45798.856202465278</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="5">
         <v>5</v>
@@ -3413,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
@@ -3422,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I44" s="5">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L44" s="5">
         <v>2</v>
@@ -3440,13 +3440,13 @@
         <v>12</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O44" s="5">
         <v>4</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q44" s="13">
         <v>11000</v>
@@ -3455,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1">
@@ -3463,7 +3463,7 @@
         <v>45798.856604143519</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C45" s="8">
         <v>3</v>
@@ -3472,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8">
         <v>4</v>
@@ -3481,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I45" s="8">
         <v>3</v>
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L45" s="8">
         <v>4</v>
@@ -3499,13 +3499,13 @@
         <v>12</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8">
         <v>4</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q45" s="8">
         <v>20000</v>
@@ -3514,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1">
@@ -3522,7 +3522,7 @@
         <v>45798.875175243054</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
@@ -3531,7 +3531,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F46" s="5">
         <v>4</v>
@@ -3540,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I46" s="5">
         <v>5</v>
@@ -3549,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L46" s="5">
         <v>3</v>
@@ -3558,13 +3558,13 @@
         <v>12</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O46" s="5">
         <v>3</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="5">
         <v>10000</v>
@@ -3573,7 +3573,7 @@
         <v>16</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1">
@@ -3581,7 +3581,7 @@
         <v>45798.883847696758</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C47" s="8">
         <v>5</v>
@@ -3590,13 +3590,13 @@
         <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F47" s="8">
         <v>3</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>15</v>
@@ -3608,7 +3608,7 @@
         <v>16</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1">
@@ -3616,7 +3616,7 @@
         <v>45798.888259768515</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C48" s="5">
         <v>5</v>
@@ -3625,16 +3625,16 @@
         <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F48" s="5">
         <v>5</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q48" s="5">
         <v>15000</v>
@@ -3643,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1">
@@ -3651,16 +3651,16 @@
         <v>45798.924486412041</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C49" s="8">
         <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q49" s="8">
         <v>9000</v>
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1">
@@ -3677,7 +3677,7 @@
         <v>45799.037331631946</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C50" s="5">
         <v>5</v>
@@ -3686,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F50" s="5">
         <v>4</v>
@@ -3695,16 +3695,16 @@
         <v>12</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50" s="5">
         <v>5</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q50" s="5">
         <v>10000</v>
@@ -3713,7 +3713,7 @@
         <v>16</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
@@ -3721,7 +3721,7 @@
         <v>45799.385408587965</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" s="8">
         <v>4</v>
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F51" s="8">
         <v>5</v>
@@ -3739,13 +3739,13 @@
         <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I51" s="8">
         <v>4</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>21</v>
@@ -3757,7 +3757,7 @@
         <v>16</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1">
@@ -3765,16 +3765,16 @@
         <v>45799.652227094906</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="5">
         <v>10000</v>
@@ -3783,7 +3783,7 @@
         <v>16</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
@@ -3791,7 +3791,7 @@
         <v>45799.833152557869</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="15">
         <v>4</v>
@@ -3800,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F53" s="15">
         <v>5</v>
@@ -3809,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I53" s="15">
         <v>4</v>
@@ -3818,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L53" s="15">
         <v>4</v>
@@ -3833,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="15">
         <v>11000</v>
@@ -3842,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
